--- a/Source Code/User experience test/Questionnaire_part1.xlsx
+++ b/Source Code/User experience test/Questionnaire_part1.xlsx
@@ -5,16 +5,17 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhl125/Documents/uofglasgow/MSc Project/MSc Project/Source Code/User experience test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhl125/Master thesis revise/User experience test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA261AD-D986-794A-82C2-7D08FFFFD31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA496D8E-9B2E-CB40-AECC-7192768878BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{1708ED2B-A99E-8748-8710-05976A0C02AE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" activeTab="2" xr2:uid="{1708ED2B-A99E-8748-8710-05976A0C02AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Questionnaire 1 - Safetweet Prototype System Usability Scale</t>
   </si>
@@ -102,6 +103,22 @@
     <t>score</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>Effectiveness&amp;Learnability</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Efficiency&amp;Usability</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sub-scale </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +174,18 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Century"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -227,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +301,15 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -593,50 +631,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B69219-10E6-094C-B036-0CF25A42E72A}">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView topLeftCell="J13" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="AF1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="31" max="31" width="48.33203125" customWidth="1"/>
+    <col min="33" max="33" width="48.33203125" customWidth="1"/>
+    <col min="36" max="36" width="26.6640625" customWidth="1"/>
+    <col min="37" max="37" width="28.33203125" customWidth="1"/>
+    <col min="38" max="38" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:38" ht="32" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:32" ht="17" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:38" ht="17" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:32" ht="55" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:38" ht="55" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="5"/>
       <c r="B5" s="3">
         <v>1</v>
@@ -647,16 +692,16 @@
       <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
         <v>6</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>7</v>
       </c>
       <c r="I5" s="4">
@@ -722,14 +767,29 @@
       <c r="AC5" s="3">
         <v>28</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AD5" s="3">
+        <v>29</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AG5" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" ht="17">
+      <c r="AJ5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL5" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="17">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -743,16 +803,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
         <v>4</v>
@@ -817,19 +877,37 @@
       <c r="AC6" s="7">
         <v>4</v>
       </c>
-      <c r="AD6" s="12">
-        <f>AVERAGE(B6:AC6)</f>
-        <v>3.4285714285714284</v>
-      </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AD6" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="12">
+        <f t="shared" ref="AF6:AF15" si="0">AVERAGE(B6:AE6)</f>
+        <v>3.4333333333333331</v>
+      </c>
+      <c r="AG6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AF6" s="14">
-        <f>AD6-1</f>
-        <v>2.4285714285714284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="17">
+      <c r="AH6" s="14">
+        <f>AF6-1</f>
+        <v>2.4333333333333331</v>
+      </c>
+      <c r="AJ6" s="14">
+        <f>AH9</f>
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="AK6" s="14">
+        <f>AH7</f>
+        <v>2.8666666666666667</v>
+      </c>
+      <c r="AL6" s="14">
+        <f>AH6</f>
+        <v>2.4333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="17">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -849,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -917,19 +995,37 @@
       <c r="AC7" s="7">
         <v>4</v>
       </c>
-      <c r="AD7" s="12">
-        <f t="shared" ref="AD7:AD15" si="0">AVERAGE(B7:AC7)</f>
-        <v>2.1071428571428572</v>
-      </c>
-      <c r="AE7" s="6" t="s">
+      <c r="AD7" s="15">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="12">
+        <f t="shared" si="0"/>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="AG7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AF7" s="14">
-        <f>5-AD7</f>
-        <v>2.8928571428571428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="17">
+      <c r="AH7" s="14">
+        <f>5-AF7</f>
+        <v>2.8666666666666667</v>
+      </c>
+      <c r="AJ7" s="14">
+        <f>AH10</f>
+        <v>2.7666666666666666</v>
+      </c>
+      <c r="AK7" s="14">
+        <f>AH8</f>
+        <v>3.2</v>
+      </c>
+      <c r="AL7" s="14">
+        <f>AH11</f>
+        <v>3.0666666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="17">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -943,16 +1039,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
         <v>5</v>
@@ -1017,19 +1113,37 @@
       <c r="AC8" s="7">
         <v>5</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AD8" s="15">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="12">
         <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="14">
-        <f>AD8-1</f>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="34">
+        <v>4.2</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="14">
+        <f>AF8-1</f>
+        <v>3.2</v>
+      </c>
+      <c r="AJ8" s="14">
+        <f>AH15</f>
+        <v>3.5666666666666664</v>
+      </c>
+      <c r="AK8" s="14">
+        <f>AH12</f>
+        <v>3.2333333333333334</v>
+      </c>
+      <c r="AL8" s="14">
+        <f>AH14</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="34">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1043,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -1117,19 +1231,29 @@
       <c r="AC9" s="7">
         <v>1</v>
       </c>
-      <c r="AD9" s="12">
+      <c r="AD9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="12">
         <f t="shared" si="0"/>
-        <v>1.6785714285714286</v>
-      </c>
-      <c r="AE9" s="6" t="s">
+        <v>1.6333333333333333</v>
+      </c>
+      <c r="AG9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AF9" s="14">
-        <f>5-AD9</f>
-        <v>3.3214285714285712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="34">
+      <c r="AH9" s="14">
+        <f>5-AF9</f>
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="AK9" s="14">
+        <f>AH13</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="34">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1143,16 +1267,16 @@
         <v>3</v>
       </c>
       <c r="E10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
         <v>5</v>
@@ -1217,19 +1341,37 @@
       <c r="AC10" s="7">
         <v>4</v>
       </c>
-      <c r="AD10" s="12">
+      <c r="AD10" s="15">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="12">
         <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF10" s="14">
-        <f>AD10-1</f>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="34" customHeight="1">
+        <v>3.7666666666666666</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH10" s="14">
+        <f>AF10-1</f>
+        <v>2.7666666666666666</v>
+      </c>
+      <c r="AJ10" s="14">
+        <f>AVERAGE(AJ6:AJ8)</f>
+        <v>3.2333333333333329</v>
+      </c>
+      <c r="AK10" s="14">
+        <f>AVERAGE(AK6:AK9)</f>
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="AL10" s="14">
+        <f>AVERAGE(AL6:AL8)</f>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="34" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1243,16 +1385,16 @@
         <v>3</v>
       </c>
       <c r="E11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -1317,19 +1459,25 @@
       <c r="AC11" s="7">
         <v>2</v>
       </c>
-      <c r="AD11" s="12">
+      <c r="AD11" s="15">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="15">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="12">
         <f t="shared" si="0"/>
-        <v>1.9285714285714286</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF11" s="14">
-        <f>5-AD11</f>
-        <v>3.0714285714285712</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="34">
+        <v>1.9333333333333333</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="14">
+        <f>5-AF11</f>
+        <v>3.0666666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="34">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1343,16 +1491,16 @@
         <v>4</v>
       </c>
       <c r="E12" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
         <v>5</v>
@@ -1417,19 +1565,25 @@
       <c r="AC12" s="7">
         <v>4</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AD12" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF12" s="12">
         <f t="shared" si="0"/>
-        <v>4.3214285714285712</v>
-      </c>
-      <c r="AE12" s="6" t="s">
+        <v>4.2333333333333334</v>
+      </c>
+      <c r="AG12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AF12" s="14">
-        <f>AD12-1</f>
-        <v>3.3214285714285712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="17">
+      <c r="AH12" s="14">
+        <f>AF12-1</f>
+        <v>3.2333333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="17">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -1443,10 +1597,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
@@ -1517,19 +1671,25 @@
       <c r="AC13" s="7">
         <v>1</v>
       </c>
-      <c r="AD13" s="12">
+      <c r="AD13" s="15">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="12">
         <f t="shared" si="0"/>
-        <v>1.6071428571428572</v>
-      </c>
-      <c r="AE13" s="6" t="s">
+        <v>1.6</v>
+      </c>
+      <c r="AG13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AH13" s="14">
         <f>5-Z13</f>
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="17">
+    <row r="14" spans="1:38" ht="17">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1543,16 +1703,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
         <v>5</v>
@@ -1617,19 +1777,25 @@
       <c r="AC14" s="7">
         <v>3</v>
       </c>
-      <c r="AD14" s="12">
+      <c r="AD14" s="15">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="15">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AE14" s="6" t="s">
+      <c r="AG14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AF14" s="14">
-        <f>AD14-1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="34">
+      <c r="AH14" s="14">
+        <f>AF14-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="34">
       <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
@@ -1717,29 +1883,39 @@
       <c r="AC15" s="7">
         <v>2</v>
       </c>
-      <c r="AD15" s="12">
+      <c r="AD15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="12">
         <f t="shared" si="0"/>
-        <v>1.4642857142857142</v>
-      </c>
-      <c r="AE15" s="6" t="s">
+        <v>1.4333333333333333</v>
+      </c>
+      <c r="AG15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AF15" s="14">
-        <f>5-AD15</f>
-        <v>3.5357142857142856</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="AD16" s="13">
-        <f>SUM(AD6:AD15)</f>
-        <v>28.535714285714288</v>
-      </c>
-      <c r="AF16" s="14">
+      <c r="AH15" s="14">
+        <f>5-AF15</f>
+        <v>3.5666666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="AF16" s="13">
         <f>SUM(AF6:AF15)</f>
-        <v>31.571428571428569</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29">
+        <v>28.366666666666667</v>
+      </c>
+      <c r="AH16" s="14">
+        <f>SUM(AH6:AH15)</f>
+        <v>31.5</v>
+      </c>
+      <c r="AI16">
+        <f>AH16*2.5</f>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31">
       <c r="B17" s="11">
         <f>B6-1</f>
         <v>4</v>
@@ -1749,24 +1925,24 @@
         <v>3</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" ref="D17:AC17" si="1">D6-1</f>
+        <f t="shared" ref="D17:AE17" si="1">D6-1</f>
         <v>1</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>E6-1</f>
+        <v>1</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>G6-1</f>
+        <v>2</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="1"/>
@@ -1852,8 +2028,16 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:29">
+      <c r="AD17" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AE17" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31">
       <c r="B18" s="11">
         <f>5-B7</f>
         <v>4</v>
@@ -1863,11 +2047,11 @@
         <v>2</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" ref="D18:AC18" si="2">5-D7</f>
+        <f t="shared" ref="D18:AE18" si="2">5-D7</f>
         <v>2</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" si="2"/>
+        <f>5-E7</f>
         <v>2</v>
       </c>
       <c r="F18" s="11">
@@ -1875,12 +2059,12 @@
         <v>2</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>5-G7</f>
+        <v>3</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="2"/>
@@ -1966,8 +2150,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:29">
+      <c r="AD18" s="11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AE18" s="11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31">
       <c r="B19" s="11">
         <f>B8-1</f>
         <v>4</v>
@@ -1977,24 +2169,24 @@
         <v>4</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" ref="D19:AC19" si="3">D8-1</f>
+        <f t="shared" ref="D19:AE19" si="3">D8-1</f>
         <v>3</v>
       </c>
       <c r="E19" s="11">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>E8-1</f>
+        <v>2</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>G8-1</f>
+        <v>2</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
@@ -2080,8 +2272,16 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:29">
+      <c r="AD19" s="11">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AE19" s="11">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31">
       <c r="B20" s="11">
         <f>5-B9</f>
         <v>4</v>
@@ -2091,24 +2291,24 @@
         <v>2</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" ref="D20:AC20" si="4">5-D9</f>
+        <f t="shared" ref="D20:AE20" si="4">5-D9</f>
         <v>4</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>5-E9</f>
+        <v>3</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>5-G9</f>
+        <v>3</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="4"/>
@@ -2194,8 +2394,16 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="2:29">
+      <c r="AD20" s="11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AE20" s="11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31">
       <c r="B21" s="11">
         <f>B10-1</f>
         <v>4</v>
@@ -2205,24 +2413,24 @@
         <v>4</v>
       </c>
       <c r="D21" s="11">
-        <f t="shared" ref="D21:AC21" si="5">D10-1</f>
+        <f t="shared" ref="D21:AE21" si="5">D10-1</f>
         <v>2</v>
       </c>
       <c r="E21" s="11">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>E10-1</f>
+        <v>1</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>G10-1</f>
+        <v>2</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="5"/>
@@ -2308,14 +2516,22 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:29">
+      <c r="AD21" s="11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AE21" s="11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31">
       <c r="B22" s="11">
         <f>5-B11</f>
         <v>4</v>
       </c>
       <c r="C22" s="11">
-        <f t="shared" ref="C22:AC22" si="6">5-C11</f>
+        <f t="shared" ref="C22:AE22" si="6">5-C11</f>
         <v>4</v>
       </c>
       <c r="D22" s="11">
@@ -2323,20 +2539,20 @@
         <v>2</v>
       </c>
       <c r="E22" s="11">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>5-E11</f>
+        <v>3</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>5-G11</f>
+        <v>3</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="6"/>
@@ -2422,14 +2638,22 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:29">
+      <c r="AD22" s="11">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AE22" s="11">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31">
       <c r="B23" s="11">
         <f>B12-1</f>
         <v>4</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23:AC23" si="7">C12-1</f>
+        <f t="shared" ref="C23:AE23" si="7">C12-1</f>
         <v>4</v>
       </c>
       <c r="D23" s="11">
@@ -2437,20 +2661,20 @@
         <v>3</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f>E12-1</f>
+        <v>3</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="11">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f>G12-1</f>
+        <v>3</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="7"/>
@@ -2536,14 +2760,22 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:29">
+      <c r="AD23" s="11">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AE23" s="11">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31">
       <c r="B24" s="11">
         <f>5-B13</f>
         <v>4</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" ref="C24:AC24" si="8">5-C13</f>
+        <f t="shared" ref="C24:AE24" si="8">5-C13</f>
         <v>4</v>
       </c>
       <c r="D24" s="11">
@@ -2551,15 +2783,15 @@
         <v>3</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f>5-E13</f>
+        <v>3</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" si="8"/>
+        <f>5-G13</f>
         <v>4</v>
       </c>
       <c r="H24" s="11">
@@ -2650,14 +2882,22 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:29">
+      <c r="AD24" s="11">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AE24" s="11">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31">
       <c r="B25" s="11">
         <f>B14-1</f>
         <v>4</v>
       </c>
       <c r="C25" s="11">
-        <f t="shared" ref="C25:AC25" si="9">C14-1</f>
+        <f t="shared" ref="C25:AE25" si="9">C14-1</f>
         <v>4</v>
       </c>
       <c r="D25" s="11">
@@ -2665,20 +2905,20 @@
         <v>2</v>
       </c>
       <c r="E25" s="11">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f>E14-1</f>
+        <v>2</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f>G14-1</f>
+        <v>3</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="9"/>
@@ -2764,14 +3004,22 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="2:29">
+      <c r="AD25" s="11">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AE25" s="11">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31">
       <c r="B26" s="11">
         <f>5-B15</f>
         <v>4</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" ref="C26:AC26" si="10">5-C15</f>
+        <f t="shared" ref="C26:AE26" si="10">5-C15</f>
         <v>4</v>
       </c>
       <c r="D26" s="11">
@@ -2779,7 +3027,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" si="10"/>
+        <f>5-E15</f>
         <v>4</v>
       </c>
       <c r="F26" s="11">
@@ -2787,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="10"/>
+        <f>5-G15</f>
         <v>4</v>
       </c>
       <c r="H26" s="11">
@@ -2878,8 +3126,16 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="2:29">
+      <c r="AD26" s="11">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AE26" s="11">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31">
       <c r="B27">
         <f>SUM(B17:B26)</f>
         <v>40</v>
@@ -2893,20 +3149,20 @@
         <v>25</v>
       </c>
       <c r="E27">
+        <f>SUM(E17:E26)</f>
+        <v>24</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
       <c r="G27">
+        <f>SUM(G17:G26)</f>
+        <v>29</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="11"/>
         <v>35</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="11"/>
-        <v>29</v>
       </c>
       <c r="I27">
         <f t="shared" si="11"/>
@@ -2985,21 +3241,29 @@
         <v>30</v>
       </c>
       <c r="AB27">
-        <f t="shared" ref="AB27:AC27" si="21">SUM(AB17:AB26)</f>
+        <f t="shared" ref="AB27:AE27" si="21">SUM(AB17:AB26)</f>
         <v>24</v>
       </c>
       <c r="AC27">
         <f t="shared" si="21"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="2:29">
+      <c r="AD27">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31">
       <c r="B28">
         <f>B27*2.5</f>
         <v>100</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:AC28" si="22">C27*2.5</f>
+        <f t="shared" ref="C28:AE28" si="22">C27*2.5</f>
         <v>87.5</v>
       </c>
       <c r="D28">
@@ -3007,20 +3271,20 @@
         <v>62.5</v>
       </c>
       <c r="E28">
+        <f>E27*2.5</f>
+        <v>60</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="22"/>
         <v>87.5</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="22"/>
-        <v>60</v>
-      </c>
       <c r="G28">
+        <f>G27*2.5</f>
+        <v>72.5</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="22"/>
         <v>87.5</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="22"/>
-        <v>72.5</v>
       </c>
       <c r="I28">
         <f t="shared" si="22"/>
@@ -3103,6 +3367,14 @@
         <v>60</v>
       </c>
       <c r="AC28">
+        <f t="shared" si="22"/>
+        <v>75</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="22"/>
+        <v>75</v>
+      </c>
+      <c r="AE28">
         <f t="shared" si="22"/>
         <v>75</v>
       </c>
@@ -3120,10 +3392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA2B36C-FB0C-B04F-96BC-2C4B860CD610}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3154,25 +3426,25 @@
     <row r="5" spans="1:1">
       <c r="A5">
         <f>Sheet1!E28</f>
-        <v>87.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
         <f>Sheet1!F28</f>
-        <v>60</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <f>Sheet1!G28</f>
-        <v>87.5</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <f>Sheet1!H28</f>
-        <v>72.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -3299,6 +3571,54 @@
       <c r="A29">
         <f>Sheet1!AC28</f>
         <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <f>Sheet1!AD28</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <f>Sheet1!AE28</f>
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578365D5-1297-9D4C-8BF9-7D8C669FD41E}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>2.83</v>
       </c>
     </row>
   </sheetData>
